--- a/biology/Médecine/Maurice_Neveu-Lemaire/Maurice_Neveu-Lemaire.xlsx
+++ b/biology/Médecine/Maurice_Neveu-Lemaire/Maurice_Neveu-Lemaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Neveu-Lemaire (Montbéliard, 24 septembre 1872 - Paris 16e, 5 avril 1951[1]) est un parasitologiste, naturaliste et explorateur français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Neveu-Lemaire (Montbéliard, 24 septembre 1872 - Paris 16e, 5 avril 1951) est un parasitologiste, naturaliste et explorateur français. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Licencié de droit et de sciences naturelles (1895), il entre au Laboratoire d'anatomie et de physiologie comparée de Henri de Lacaze-Duthiers, à la faculté des sciences de Paris. 
 Après des stages aux laboratoires maritimes de Banyuls-sur-Mer, Roscoff et Tatihou (1895-1898), il devient préparateur du cours du Laboratoire de parasitologie de Raoul Blanchard, à la faculté de médecine de Paris (1897-1904). 
@@ -553,7 +567,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les hématozoaires du paludisme. Historique ; Connaissances actuelles ; Applications des découvertes récentes à la prophylaxie du paludisme (thèse), 1900
 Parasitologie humaine, 1902-1921
